--- a/Datasets/Frommann/Data/Frommann_1_C_Bolduan.xlsx
+++ b/Datasets/Frommann/Data/Frommann_1_C_Bolduan.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/81aa60b0b6324d95/Dokumente/GitHub/Akademie_Projekt/Datasets/Frommann/Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_03AD17B816E5C6A6E57F4F5E23E563C9069F52C6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26858824-4724-49C6-93D0-B845D7D66229}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="writing" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Hinweise" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="writing" sheetId="2" r:id="rId2"/>
+    <sheet name="Hinweise" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="82">
   <si>
     <t>Jg</t>
   </si>
@@ -23,13 +30,13 @@
     <t xml:space="preserve">Paket </t>
   </si>
   <si>
-    <t xml:space="preserve">Titel 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Titel 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Titel 3</t>
+    <t>Titel 1</t>
+  </si>
+  <si>
+    <t>Titel 2</t>
+  </si>
+  <si>
+    <t>Titel 3</t>
   </si>
   <si>
     <t>Ort</t>
@@ -59,16 +66,16 @@
     <t>y</t>
   </si>
   <si>
-    <t xml:space="preserve">Bemerkung Erfassung</t>
+    <t>Bemerkung Erfassung</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t xml:space="preserve">Lieder und Märchen im Dialekt von Meklemburg-Strelitz.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orthographische Vorbemerkungen.</t>
+    <t>Lieder und Märchen im Dialekt von Meklemburg-Strelitz.</t>
+  </si>
+  <si>
+    <t>Orthographische Vorbemerkungen.</t>
   </si>
   <si>
     <t>Mecklenburg-Strelitz</t>
@@ -83,13 +90,13 @@
     <t>12.9441931</t>
   </si>
   <si>
-    <t xml:space="preserve">Osnabrücker Mundart.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gesang der armen Kinder aus St. Martinsabend.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gesang der armen Kinder am heil. Dreikönigsfeste.</t>
+    <t>Osnabrücker Mundart.</t>
+  </si>
+  <si>
+    <t>Gesang der armen Kinder aus St. Martinsabend.</t>
+  </si>
+  <si>
+    <t>Gesang der armen Kinder am heil. Dreikönigsfeste.</t>
   </si>
   <si>
     <t>Osnabrück</t>
@@ -104,10 +111,10 @@
     <t>7.8995456</t>
   </si>
   <si>
-    <t xml:space="preserve">Ostfriesische Mundart.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Up moeders schôt.</t>
+    <t>Ostfriesische Mundart.</t>
+  </si>
+  <si>
+    <t>Up moeders schôt.</t>
   </si>
   <si>
     <t>Ostfriesland</t>
@@ -119,10 +126,10 @@
     <t>6.5423195</t>
   </si>
   <si>
-    <t xml:space="preserve">Lieder in fränkisch-henneberger mundart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">von G. Friedr. Stertzing</t>
+    <t>Lieder in fränkisch-henneberger mundart</t>
+  </si>
+  <si>
+    <t>von G. Friedr. Stertzing</t>
   </si>
   <si>
     <t>Bibra</t>
@@ -146,10 +153,10 @@
     <t>9.6296722</t>
   </si>
   <si>
-    <t xml:space="preserve">Nürnberger Mundart.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elegie an Nürnberg.</t>
+    <t>Nürnberger Mundart.</t>
+  </si>
+  <si>
+    <t>Elegie an Nürnberg.</t>
   </si>
   <si>
     <t>Nürnberg</t>
@@ -161,17 +168,18 @@
     <t>10.9682322</t>
   </si>
   <si>
-    <t xml:space="preserve">Oberösterreichische Lieder.</t>
+    <t>Oberösterreichische Lieder.</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">1) 's kloán Wölk</t>
+      <t>1) 's kloán Wölk</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>ɘ</t>
     </r>
@@ -180,6 +188,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>rl.</t>
@@ -187,13 +196,14 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">2) Nöst und Weib</t>
+      <t>2) Nöst und Weib</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>ɘ</t>
     </r>
@@ -202,6 +212,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>rl.</t>
@@ -217,10 +228,10 @@
     <t>13.7158623</t>
   </si>
   <si>
-    <t xml:space="preserve">Schwäbische Mundart.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Der Schäfer und sein Mädchen.</t>
+    <t>Schwäbische Mundart.</t>
+  </si>
+  <si>
+    <t>Der Schäfer und sein Mädchen.</t>
   </si>
   <si>
     <t>Schwaben</t>
@@ -240,21 +251,23 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
-      <t xml:space="preserve">əm Züribiətər</t>
+      <t>əm Züribiətər</t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">zum neu</t>
+      <t>zum neu</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
-      <t xml:space="preserve">ə Jàr.</t>
+      <t>ə Jàr.</t>
     </r>
   </si>
   <si>
@@ -270,16 +283,16 @@
     <t>Polyglotten.</t>
   </si>
   <si>
-    <t xml:space="preserve">Pech über Pech (Hochdeutsch.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pê'g übər Pê'g (Nürnberger Mundart.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Der Hase und der Fuchs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Matten Has'. (Ditmarscher Mundart.)</t>
+    <t>Pech über Pech (Hochdeutsch.)</t>
+  </si>
+  <si>
+    <t>Pê'g übər Pê'g (Nürnberger Mundart.)</t>
+  </si>
+  <si>
+    <t>Der Hase und der Fuchs.</t>
+  </si>
+  <si>
+    <t>1) Matten Has'. (Ditmarscher Mundart.)</t>
   </si>
   <si>
     <t>Dithmarschen</t>
@@ -291,7 +304,7 @@
     <t>8.7320215</t>
   </si>
   <si>
-    <t xml:space="preserve">2) əs Kláslá dər Hôs. (Koburger Mundart.)</t>
+    <t>2) əs Kláslá dər Hôs. (Koburger Mundart.)</t>
   </si>
   <si>
     <t>Coburg</t>
@@ -306,48 +319,64 @@
     <t>ortspunktgenau</t>
   </si>
   <si>
-    <t xml:space="preserve">z.B. Ganaker</t>
+    <t>z.B. Ganaker</t>
   </si>
   <si>
     <t>kleinregional</t>
   </si>
   <si>
-    <t xml:space="preserve">z.B. Wetterau</t>
+    <t>z.B. Wetterau</t>
   </si>
   <si>
     <t>großräumig</t>
   </si>
   <si>
-    <t xml:space="preserve">z.B. Mecklenburg</t>
+    <t>z.B. Mecklenburg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="12.000000"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12.000000"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.500000"/>
+      <sz val="10.5"/>
       <color rgb="FF202124"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color rgb="FF202124"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -374,45 +403,32 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="3" xfId="0" applyNumberFormat="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1"/>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -420,12 +436,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -441,13 +460,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="undefined"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="undefined">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -466,291 +491,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -953,35 +695,37 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O267"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="120" workbookViewId="0">
-      <selection activeCell="D19" activeCellId="0" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="4.125"/>
-    <col bestFit="1" customWidth="1" min="2" max="2" width="6.375"/>
-    <col customWidth="1" min="3" max="3" width="45.5"/>
-    <col customWidth="1" min="4" max="5" width="46"/>
-    <col customWidth="1" min="6" max="6" width="18.125"/>
-    <col customWidth="1" min="7" max="7" width="15.375"/>
-    <col bestFit="1" customWidth="1" min="8" max="8" width="12.125"/>
-    <col bestFit="1" customWidth="1" min="9" max="9" width="10.375"/>
-    <col bestFit="1" customWidth="1" min="10" max="10" width="5.5"/>
-    <col customWidth="1" min="11" max="11" width="13.875"/>
-    <col customWidth="1" min="12" max="12" width="14.625"/>
-    <col customWidth="1" min="13" max="13" style="1" width="11.625"/>
-    <col customWidth="1" min="14" max="14" style="1" width="16.25"/>
-    <col customWidth="1" min="15" max="15" width="23.5"/>
+    <col min="1" max="1" width="4.125" customWidth="1"/>
+    <col min="2" max="2" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.5" customWidth="1"/>
+    <col min="4" max="5" width="46" customWidth="1"/>
+    <col min="6" max="6" width="18.125" customWidth="1"/>
+    <col min="7" max="7" width="15.375" customWidth="1"/>
+    <col min="8" max="8" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.875" customWidth="1"/>
+    <col min="12" max="12" width="14.625" customWidth="1"/>
+    <col min="13" max="13" width="11.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.25" style="1" customWidth="1"/>
+    <col min="15" max="15" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1">
+    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1028,11 +772,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C2" t="s">
@@ -1062,11 +806,11 @@
       <c r="M2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1103,11 +847,11 @@
       <c r="M3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1141,39 +885,39 @@
       <c r="M4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="6" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="C5" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="5">
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
         <v>277</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5">
         <v>286</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="5" t="s">
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" t="s">
         <v>19</v>
       </c>
       <c r="L5" t="s">
@@ -1186,7 +930,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" ht="33">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1199,7 +943,7 @@
       <c r="D6" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="4" t="s">
         <v>40</v>
       </c>
       <c r="G6">
@@ -1220,14 +964,14 @@
       <c r="L6" t="s">
         <v>37</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1261,11 +1005,11 @@
       <c r="M7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="N7" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1275,13 +1019,13 @@
       <c r="C8" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="4" t="s">
         <v>51</v>
       </c>
       <c r="G8">
@@ -1293,20 +1037,20 @@
       <c r="I8">
         <v>290</v>
       </c>
-      <c r="J8" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="13" t="s">
+      <c r="J8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="N8" s="9" t="s">
+      <c r="N8" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1316,7 +1060,7 @@
       <c r="C9" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="11" t="s">
         <v>55</v>
       </c>
       <c r="F9" t="s">
@@ -1331,33 +1075,33 @@
       <c r="I9">
         <v>293</v>
       </c>
-      <c r="J9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="12" t="s">
+      <c r="J9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" t="s">
         <v>19</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="N9" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="4" t="s">
         <v>61</v>
       </c>
       <c r="G10">
@@ -1369,24 +1113,24 @@
       <c r="I10">
         <v>293</v>
       </c>
-      <c r="J10" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" s="10" t="s">
+      <c r="J10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" t="s">
         <v>26</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="N10" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="5">
-        <v>1</v>
-      </c>
-      <c r="B11" s="6" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11" t="s">
@@ -1395,40 +1139,37 @@
       <c r="D11" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="5">
+      <c r="F11" s="4"/>
+      <c r="G11">
         <v>3</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11">
         <v>293</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11">
         <v>296</v>
       </c>
-      <c r="J11" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11" s="1"/>
-      <c r="N11" s="4"/>
-    </row>
-    <row r="12">
+      <c r="J11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" t="s">
         <v>64</v>
       </c>
       <c r="D12" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10" t="s">
+      <c r="F12" t="s">
         <v>45</v>
       </c>
       <c r="G12">
@@ -1440,37 +1181,36 @@
       <c r="I12">
         <v>296</v>
       </c>
-      <c r="J12" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="12" t="s">
+      <c r="J12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" t="s">
         <v>19</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="N12" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" ht="31.5">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="4">
         <v>2</v>
       </c>
       <c r="H13">
@@ -1479,20 +1219,20 @@
       <c r="I13">
         <v>299</v>
       </c>
-      <c r="J13" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M13" s="9" t="s">
+      <c r="J13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="N13" s="9" t="s">
+      <c r="N13" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" ht="16.5">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1511,10 +1251,10 @@
       <c r="G14">
         <v>1</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14">
         <v>296</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14">
         <v>299</v>
       </c>
       <c r="J14" t="s">
@@ -1530,79 +1270,77 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43">
-      <c r="H43" s="14"/>
-    </row>
-    <row r="71">
-      <c r="O71" s="15"/>
-    </row>
-    <row r="72">
-      <c r="O72" s="15"/>
-    </row>
-    <row r="73">
-      <c r="O73" s="15"/>
-    </row>
-    <row r="74">
-      <c r="O74" s="15"/>
-    </row>
-    <row r="113">
-      <c r="F113" s="16"/>
-      <c r="G113" s="16"/>
-    </row>
-    <row r="114">
-      <c r="F114" s="17"/>
-      <c r="G114" s="17"/>
-    </row>
-    <row r="267">
+    <row r="43" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H43" s="6"/>
+    </row>
+    <row r="71" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O71" s="7"/>
+    </row>
+    <row r="72" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O72" s="7"/>
+    </row>
+    <row r="73" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O73" s="7"/>
+    </row>
+    <row r="74" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O74" s="7"/>
+    </row>
+    <row r="113" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+    </row>
+    <row r="114" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F114" s="9"/>
+      <c r="G114" s="9"/>
+    </row>
+    <row r="267" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O267" s="1"/>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="I34" activeCellId="0" sqref="I34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" style="18" width="10.875"/>
+    <col min="1" max="16384" width="10.875" style="10"/>
   </cols>
   <sheetData/>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" min="2" max="2" width="13.875"/>
-    <col bestFit="1" customWidth="1" min="3" max="3" width="15.125"/>
+    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1613,7 +1351,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1624,7 +1362,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1636,9 +1374,7 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.78740157500000008" bottom="0.78740157500000008" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157500000008" bottom="0.78740157500000008" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>